--- a/public/dados_both.xlsx
+++ b/public/dados_both.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Código</t>
   </si>
@@ -19,7 +19,34 @@
     <t>Imagem</t>
   </si>
   <si>
-    <t>1234567890128</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>1234567890123</t>
+  </si>
+  <si>
+    <t>9780201379624</t>
+  </si>
+  <si>
+    <t>5901234123457</t>
+  </si>
+  <si>
+    <t>4006381333931</t>
+  </si>
+  <si>
+    <t>74001005350</t>
   </si>
 </sst>
 </file>
@@ -814,47 +841,47 @@
     </row>
     <row r="3" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
